--- a/patient_data/patient_81.xlsx
+++ b/patient_data/patient_81.xlsx
@@ -521,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -566,19 +566,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -930,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
